--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_beg.xlsx
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Amiya reported to me that you had a difficult fight with a “FrostNova,” an Infected serving Reunion as leader of a special squad, at the bottom of Lungmen.
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya reported to me that you had a difficult fight with a 'FrostNova,' an Infected serving Reunion as leader of a special squad, at the bottom of Lungmen.
 </t>
   </si>
   <si>
@@ -1068,7 +1068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, “distinguish your friends from your foes.”
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, 'distinguish your friends from your foes.'
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Your powers and responsibilities compliment one another. “Distinguish your enemies from your friends.” Those are your words, not mine.
+    <t xml:space="preserve">[name="Kal'tsit"]  Your powers and responsibilities compliment one another. 'Distinguish your enemies from your friends.' Those are your words, not mine.
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  More accurately, FrostNova and her Yeti Squad were a guerilla team of elite Infected. 
+    <t xml:space="preserve">[name="Kal'tsit"]  More accurately, FrostNova and her Yeti Squad were a guerilla team of elite Infected. 
 </t>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We will meet rigorously trained... “soldiers.” Reunion’s “soldiers,” trained in the tactics of Ursus’s own army by the guerrillas.
+    <t xml:space="preserve">[name="Kal'tsit"]  We will meet rigorously trained... 'soldiers.' Reunion’s 'soldiers,' trained in the tactics of Ursus’s own army by the guerrillas.
 </t>
   </si>
   <si>
@@ -1312,7 +1312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Every elite operator has a considerable amount of strength. We expect them to take charge. 
+    <t xml:space="preserve">[name="Kal'tsit"]  Every elite operator has a considerable amount of strength. We expect them to take charge. 
 </t>
   </si>
   <si>
@@ -1448,7 +1448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  ...Reunion. 
+    <t xml:space="preserve">[name="Rosmontis"]  ...Reunion. 
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_beg.xlsx
@@ -1004,27 +1004,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’ll begin the operation after we finish collecting all the environmental information. Before that, it’ll benefit you to hear exactly what’s going on inside Chernobog’s core city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Amiya’s a bit tied up on the scene, so she won’t be able to join this discussion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’ve already read the information in the mission briefing, but that kind of information is not good enough for a mind like yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Did you finally realize that you need me?;......;I’m glad you see me as more than a simple battlefield commander.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If the worst comes to pass, I don’t want you to sacrifice yourself while still not knowing a single thing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If you’ve taken interest in some part of me, you can just come out and say it. No need to stare so much.
+    <t xml:space="preserve">[name="Kal'tsit"]  We'll begin the operation after we finish collecting all the environmental information. Before that, it'll benefit you to hear exactly what's going on inside Chernobog's core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya's a bit tied up on the scene, so she won't be able to join this discussion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You've already read the information in the mission briefing, but that kind of information is not good enough for a mind like yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Did you finally realize that you need me?;......;I'm glad you see me as more than a simple battlefield commander.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If the worst comes to pass, I don't want you to sacrifice yourself while still not knowing a single thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you've taken interest in some part of me, you can just come out and say it. No need to stare so much.
 </t>
   </si>
   <si>
@@ -1032,11 +1032,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If you don’t believe me, you can try for yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But skip the chatter. We don’t have much time.
+    <t xml:space="preserve">[name="Kal'tsit"]  If you don't believe me, you can try for yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But skip the chatter. We don't have much time.
 </t>
   </si>
   <si>
@@ -1044,7 +1044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  After that, Reunion’s deployments in Lungmen fell apart completely.
+    <t xml:space="preserve">[name="Kal'tsit"]  After that, Reunion's deployments in Lungmen fell apart completely.
 </t>
   </si>
   <si>
@@ -1056,15 +1056,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="There was no victor.;No.;I wouldn’t call that a victory.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I understand. According to the data from PRTS, you had the cooperation of our operators when you brought the enemy’s body back to Rhodes Island for treatment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I don’t consider her an enemy.", values="1")]
+    <t xml:space="preserve">[Decision(options="There was no victor.;No.;I wouldn't call that a victory.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I understand. According to the data from PRTS, you had the cooperation of our operators when you brought the enemy's body back to Rhodes Island for treatment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I don't consider her an enemy.", values="1")]
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I don’t have the right to overreach and criticize your judgment.
+    <t xml:space="preserve">[name="Kal'tsit"]  I don't have the right to overreach and criticize your judgment.
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’re actually... siding with me?", values="1")]
+    <t xml:space="preserve">[Decision(options="You're actually... siding with me?", values="1")]
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We don’t have time to go over what should be common historical knowledge, but let me say this frankly — Sarkaz mercenaries are unreliable, a problem W faces just as much as Reunion.
+    <t xml:space="preserve">[name="Kal'tsit"]  We don't have time to go over what should be common historical knowledge, but let me say this frankly — Sarkaz mercenaries are unreliable, a problem W faces just as much as Reunion.
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I haven’t even gotten to the important part.
+    <t xml:space="preserve">[name="Kal'tsit"]  I haven't even gotten to the important part.
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Before joining Reunion’s ranks, they were an independent guerrilla force of Infected, and their prestige was even greater among certain groups of Infected than that of Reunion.
+    <t xml:space="preserve">[name="Kal'tsit"]  Before joining Reunion's ranks, they were an independent guerrilla force of Infected, and their prestige was even greater among certain groups of Infected than that of Reunion.
 </t>
   </si>
   <si>
@@ -1192,15 +1192,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m not sure where you learned that piece of information, Doctor, but I color me impressed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Though that piece of information itself is fairly basic, I am relieved that you’re able to proactively gather intel on your own.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You just had to tack that bit onto the end...;......;Why does it feel like you’re poking fun at me?", values="1;2;3")]
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm not sure where you learned that piece of information, Doctor, but I color me impressed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Though that piece of information itself is fairly basic, I am relieved that you're able to proactively gather intel on your own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You just had to tack that bit onto the end...;......;Why does it feel like you're poking fun at me?", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1208,23 +1208,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’ve arrived at the foundations of the industrial sector at Chernobog’s core city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Next, we’ll lead three teams through the complex underground passages, take the sewer pipes into the industrial layer, and come up in the heart of the core city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Be aware that any enemies you see patrolling these areas are not the ordinary Reunion thugs you’re used to fighting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We will meet rigorously trained... 'soldiers.' Reunion’s 'soldiers,' trained in the tactics of Ursus’s own army by the guerrillas.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Our recon operators discovered that communication networks have been forcefully cut off within the core city. Rather, it seems that Reunion didn’t even try to maintain these channels.
+    <t xml:space="preserve">[name="Kal'tsit"]  We've arrived at the foundations of the industrial sector at Chernobog's core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Next, we'll lead three teams through the complex underground passages, take the sewer pipes into the industrial layer, and come up in the heart of the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Be aware that any enemies you see patrolling these areas are not the ordinary Reunion thugs you're used to fighting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We will meet rigorously trained... 'soldiers.' Reunion's 'soldiers,' trained in the tactics of Ursus's own army by the guerrillas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Our recon operators discovered that communication networks have been forcefully cut off within the core city. Rather, it seems that Reunion didn't even try to maintain these channels.
 </t>
   </si>
   <si>
@@ -1232,11 +1232,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  What this means is Reunion either already has some special way of communicating, or they simply aren’t prepared to fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Based on what we saw in Chernobog a month ago, don’t expect that second scenario. However, if communication is cut off, the lower-ranking Reunion members won’t receive direct commands.
+    <t xml:space="preserve">[name="Kal'tsit"]  What this means is Reunion either already has some special way of communicating, or they simply aren't prepared to fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Based on what we saw in Chernobog a month ago, don't expect that second scenario. However, if communication is cut off, the lower-ranking Reunion members won't receive direct commands.
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I fear they won’t know signals they cannot receive— a signal that only countries and city-states can distinguish. One that marks the territory of Ursus.
+    <t xml:space="preserve">[name="Kal'tsit"]  I fear they won't know signals they cannot receive— a signal that only countries and city-states can distinguish. One that marks the territory of Ursus.
 </t>
   </si>
   <si>
@@ -1252,11 +1252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  They’re a step ahead of me, and the seeds of ruin have already been sown.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="What’s your conclusion?", values="1")]
+    <t xml:space="preserve">[name="Kal'tsit"]  They're a step ahead of me, and the seeds of ruin have already been sown.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What's your conclusion?", values="1")]
 </t>
   </si>
   <si>
@@ -1268,19 +1268,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’ve seen the same thing unfold countless of times across this land.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Is there something you’re not telling me?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’ve said pretty much everything I needed to say. As for the rest, we’ll cross those bridges when we get to them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even if we’re still just preparing for war, efficiency still matters.
+    <t xml:space="preserve">[name="Kal'tsit"]  I've seen the same thing unfold countless of times across this land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Is there something you're not telling me?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I've said pretty much everything I needed to say. As for the rest, we'll cross those bridges when we get to them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even if we're still just preparing for war, efficiency still matters.
 </t>
   </si>
   <si>
@@ -1296,7 +1296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Don’t these belong to Rosmontis?", values="1")]
+    <t xml:space="preserve">[Decision(options="Don't these belong to Rosmontis?", values="1")]
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Never expected she’d have the power to use a device like this.", values="1")]
+    <t xml:space="preserve">[Decision(options="Never expected she'd have the power to use a device like this.", values="1")]
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...So, you haven’t had the time to understand how Rosmontis fights.
+    <t xml:space="preserve">[name="Kal'tsit"]  ...So, you haven't had the time to understand how Rosmontis fights.
 </t>
   </si>
   <si>
@@ -1332,15 +1332,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Very few people aren’t shocked after watching Rosmontis fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Make sure you’re ready for it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Dr. {@nickname}, you’re here!
+    <t xml:space="preserve">[name="Kal'tsit"]  Very few people aren't shocked after watching Rosmontis fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Make sure you're ready for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Dr. {@nickname}, you're here!
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  I think you’ll probably want to move.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I think you'll probably want to move.
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Doctor, it’s really dangerous to stand next to her!
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Doctor, it's really dangerous to stand next to her!
 </t>
   </si>
   <si>
@@ -1404,15 +1404,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’m not like Amiya. Amiya’s Arts can go around her friends to strike her enemies...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  But not me. I can’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  So don’t stand between me and my fight.
+    <t xml:space="preserve">[name="Rosmontis"]  I'm not like Amiya. Amiya's Arts can go around her friends to strike her enemies...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But not me. I can't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  So don't stand between me and my fight.
 </t>
   </si>
   <si>
@@ -1420,15 +1420,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Member"]  That girl, the one carrying that box... Wh-what’s going on...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Member"]  What’s wrong with my eyes? I can’t see anything! My eyes! My face!! It hurts! It hurts!!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Member"]  Something’s crushing my head!
+    <t xml:space="preserve">[name="Reunion Member"]  That girl, the one carrying that box... Wh-what's going on...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  What's wrong with my eyes? I can't see anything! My eyes! My face!! It hurts! It hurts!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Something's crushing my head!
 </t>
   </si>
   <si>
@@ -1436,7 +1436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  It’s been a long time since I’ve crushed anyone to death.
+    <t xml:space="preserve">[name="Rosmontis"]  It's been a long time since I've crushed anyone to death.
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I don’t want you in my memories.
+    <t xml:space="preserve">[name="Rosmontis"]  I don't want you in my memories.
 </t>
   </si>
   <si>
